--- a/surveyResults.xlsx
+++ b/surveyResults.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1D54C2-E5E8-487A-B572-F5BC796EC25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C9B78-DE1C-4C94-9FB0-F39A0AC66284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -262,6 +273,36 @@
   </si>
   <si>
     <t>Unternehmen</t>
+  </si>
+  <si>
+    <t>Gestaltungsdimension</t>
+  </si>
+  <si>
+    <t>Technologie</t>
+  </si>
+  <si>
+    <t>Frage</t>
+  </si>
+  <si>
+    <t>Daten</t>
+  </si>
+  <si>
+    <t>Subkategorie</t>
+  </si>
+  <si>
+    <t>Modelle und Werkzeuge</t>
+  </si>
+  <si>
+    <t>Datenhaltung und Hosting</t>
+  </si>
+  <si>
+    <t>Datadriven Culture</t>
+  </si>
+  <si>
+    <t>Infrasturktur</t>
+  </si>
+  <si>
+    <t>Punkte</t>
   </si>
 </sst>
 </file>
@@ -269,7 +310,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -302,7 +343,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -505,10 +546,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -600,6 +641,20 @@
     <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Feedback Prozesse im Bezug auf KI" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6F1D6C19-1C21-4C3D-8015-518C70ADA927}" name="Table9" displayName="Table9" ref="A1:E17" totalsRowShown="0">
+  <autoFilter ref="A1:E17" xr:uid="{6F1D6C19-1C21-4C3D-8015-518C70ADA927}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{50772BBD-0A24-4E78-9434-C423D1856A62}" name="Gestaltungsdimension"/>
+    <tableColumn id="2" xr3:uid="{8BF20D93-27AE-46B6-A50B-EB9DB280AA35}" name="Unternehmen"/>
+    <tableColumn id="3" xr3:uid="{C12D2F7F-E0C9-49EC-8BB7-16EBF3B2FBAC}" name="Subkategorie"/>
+    <tableColumn id="4" xr3:uid="{9B95CB3F-2674-41C9-90FA-CF5F04BF16ED}" name="Frage"/>
+    <tableColumn id="5" xr3:uid="{161CF51E-5230-484A-A032-DD81B77AB925}" name="Punkte"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -902,14 +957,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BB1" sqref="BB1:BE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="68" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="68" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
@@ -1687,4 +1744,318 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65F5C21-3A87-4B0A-B43F-18726C1E9F5C}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/surveyResults.xlsx
+++ b/surveyResults.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C9B78-DE1C-4C94-9FB0-F39A0AC66284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6C0C0-2191-4C4E-8299-0B6A24960B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10455" yWindow="225" windowWidth="19185" windowHeight="10305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -303,6 +304,33 @@
   </si>
   <si>
     <t>Punkte</t>
+  </si>
+  <si>
+    <t>Processe</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>.8</t>
+  </si>
+  <si>
+    <t>.5</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>.67</t>
   </si>
 </sst>
 </file>
@@ -653,6 +681,19 @@
     <tableColumn id="3" xr3:uid="{C12D2F7F-E0C9-49EC-8BB7-16EBF3B2FBAC}" name="Subkategorie"/>
     <tableColumn id="4" xr3:uid="{9B95CB3F-2674-41C9-90FA-CF5F04BF16ED}" name="Frage"/>
     <tableColumn id="5" xr3:uid="{161CF51E-5230-484A-A032-DD81B77AB925}" name="Punkte"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07969BBB-E976-4988-AFF1-BAAA543861D2}" name="Table3" displayName="Table3" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{07969BBB-E976-4988-AFF1-BAAA543861D2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4577A8A7-9A3D-40AA-AD93-E9E258A6851C}" name="Unternehmen"/>
+    <tableColumn id="2" xr3:uid="{FF5CD7DE-7410-45D7-8296-AF54044BD68C}" name="Technologie"/>
+    <tableColumn id="3" xr3:uid="{EA01C76C-48E6-40DC-A5D9-0AEE6FC6804D}" name="Daten"/>
+    <tableColumn id="4" xr3:uid="{AB5C38FB-FEA1-479B-A083-496967678E61}" name="Processe"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -961,15 +1002,15 @@
       <selection activeCell="BB1" sqref="BB1:BE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
     <col min="2" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" customWidth="1"/>
     <col min="8" max="68" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1216,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1353,7 +1394,7 @@
       <c r="BO2" s="2"/>
       <c r="BP2" s="2"/>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1547,7 +1588,7 @@
       </c>
       <c r="BP3" s="2"/>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1750,20 +1791,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65F5C21-3A87-4B0A-B43F-18726C1E9F5C}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1780,7 +1821,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1797,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1814,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1831,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1848,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -1865,7 +1906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1882,7 +1923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1899,7 +1940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1916,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -1933,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1950,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1967,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -1984,7 +2025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -2001,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -2018,7 +2059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -2035,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -2058,4 +2099,83 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5EB1CF-2ABD-4D3B-A4F0-908F43B4DF01}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/surveyResults.xlsx
+++ b/surveyResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6C0C0-2191-4C4E-8299-0B6A24960B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F4C219-4D73-4E66-AC78-3789BDFC2167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10455" yWindow="225" windowWidth="19185" windowHeight="10305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2106,7 +2106,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/surveyResults.xlsx
+++ b/surveyResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F4C219-4D73-4E66-AC78-3789BDFC2167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DDD6F4-5FF5-42C7-BAF1-A62EA8C896D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10455" yWindow="225" windowWidth="19185" windowHeight="10305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="4605" windowWidth="19185" windowHeight="10305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -306,15 +306,9 @@
     <t>Punkte</t>
   </si>
   <si>
-    <t>Processe</t>
-  </si>
-  <si>
     <t>0.10</t>
   </si>
   <si>
-    <t>0.15</t>
-  </si>
-  <si>
     <t>0.7</t>
   </si>
   <si>
@@ -331,6 +325,36 @@
   </si>
   <si>
     <t>.67</t>
+  </si>
+  <si>
+    <t>Kevin Kreis</t>
+  </si>
+  <si>
+    <t>Sean Kallenberg</t>
+  </si>
+  <si>
+    <t>Tobias Groß</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Organisation und Expertise</t>
+  </si>
+  <si>
+    <t>Prozesse im Bezug auf KI</t>
+  </si>
+  <si>
+    <t>Prozesse im Bezug auf KI2</t>
+  </si>
+  <si>
+    <t>.7</t>
+  </si>
+  <si>
+    <t>.6</t>
   </si>
 </sst>
 </file>
@@ -340,10 +364,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -687,13 +717,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07969BBB-E976-4988-AFF1-BAAA543861D2}" name="Table3" displayName="Table3" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{07969BBB-E976-4988-AFF1-BAAA543861D2}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07969BBB-E976-4988-AFF1-BAAA543861D2}" name="Table3" displayName="Table3" ref="A1:F17" totalsRowShown="0">
+  <autoFilter ref="A1:F17" xr:uid="{07969BBB-E976-4988-AFF1-BAAA543861D2}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4577A8A7-9A3D-40AA-AD93-E9E258A6851C}" name="Unternehmen"/>
     <tableColumn id="2" xr3:uid="{FF5CD7DE-7410-45D7-8296-AF54044BD68C}" name="Technologie"/>
     <tableColumn id="3" xr3:uid="{EA01C76C-48E6-40DC-A5D9-0AEE6FC6804D}" name="Daten"/>
-    <tableColumn id="4" xr3:uid="{AB5C38FB-FEA1-479B-A083-496967678E61}" name="Processe"/>
+    <tableColumn id="4" xr3:uid="{AB5C38FB-FEA1-479B-A083-496967678E61}" name="Organisation und Expertise"/>
+    <tableColumn id="5" xr3:uid="{C20DD7CA-C76F-490B-BBA3-6461A5B797A6}" name="Prozesse im Bezug auf KI"/>
+    <tableColumn id="8" xr3:uid="{16C9F9BB-969A-4461-9A29-3F949B86F0E1}" name="Prozesse im Bezug auf KI2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1002,15 +1034,15 @@
       <selection activeCell="BB1" sqref="BB1:BE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="68" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1248,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1394,7 +1426,7 @@
       <c r="BO2" s="2"/>
       <c r="BP2" s="2"/>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1588,7 +1620,7 @@
       </c>
       <c r="BP3" s="2"/>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1795,16 +1827,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1821,7 +1853,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1838,7 +1870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1855,7 +1887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1872,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1889,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -1906,7 +1938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1923,7 +1955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1940,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1957,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -1974,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1991,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -2008,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2025,7 +2057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -2042,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -2059,7 +2091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -2076,7 +2108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -2103,19 +2135,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5EB1CF-2ABD-4D3B-A4F0-908F43B4DF01}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -2126,52 +2159,402 @@
         <v>82</v>
       </c>
       <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <f ca="1">RANDBETWEEN(0,9)*0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:F17" ca="1" si="0">RANDBETWEEN(0,9)*0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B17" ca="1" si="1">RANDBETWEEN(0,9)*0.1</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/surveyResults.xlsx
+++ b/surveyResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DDD6F4-5FF5-42C7-BAF1-A62EA8C896D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18706E5-55DC-44A6-8DD8-B169199C812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6990" yWindow="4605" windowWidth="19185" windowHeight="10305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -346,15 +346,6 @@
   </si>
   <si>
     <t>Prozesse im Bezug auf KI</t>
-  </si>
-  <si>
-    <t>Prozesse im Bezug auf KI2</t>
-  </si>
-  <si>
-    <t>.7</t>
-  </si>
-  <si>
-    <t>.6</t>
   </si>
 </sst>
 </file>
@@ -364,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,13 +369,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -399,10 +403,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,8 +710,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6F1D6C19-1C21-4C3D-8015-518C70ADA927}" name="Table9" displayName="Table9" ref="A1:E17" totalsRowShown="0">
-  <autoFilter ref="A1:E17" xr:uid="{6F1D6C19-1C21-4C3D-8015-518C70ADA927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6F1D6C19-1C21-4C3D-8015-518C70ADA927}" name="Table9" displayName="Table9" ref="A1:E33" totalsRowShown="0">
+  <autoFilter ref="A1:E33" xr:uid="{6F1D6C19-1C21-4C3D-8015-518C70ADA927}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{50772BBD-0A24-4E78-9434-C423D1856A62}" name="Gestaltungsdimension"/>
     <tableColumn id="2" xr3:uid="{8BF20D93-27AE-46B6-A50B-EB9DB280AA35}" name="Unternehmen"/>
@@ -717,15 +724,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07969BBB-E976-4988-AFF1-BAAA543861D2}" name="Table3" displayName="Table3" ref="A1:F17" totalsRowShown="0">
-  <autoFilter ref="A1:F17" xr:uid="{07969BBB-E976-4988-AFF1-BAAA543861D2}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07969BBB-E976-4988-AFF1-BAAA543861D2}" name="Table3" displayName="Table3" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4" xr:uid="{07969BBB-E976-4988-AFF1-BAAA543861D2}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4577A8A7-9A3D-40AA-AD93-E9E258A6851C}" name="Unternehmen"/>
     <tableColumn id="2" xr3:uid="{FF5CD7DE-7410-45D7-8296-AF54044BD68C}" name="Technologie"/>
     <tableColumn id="3" xr3:uid="{EA01C76C-48E6-40DC-A5D9-0AEE6FC6804D}" name="Daten"/>
     <tableColumn id="4" xr3:uid="{AB5C38FB-FEA1-479B-A083-496967678E61}" name="Organisation und Expertise"/>
     <tableColumn id="5" xr3:uid="{C20DD7CA-C76F-490B-BBA3-6461A5B797A6}" name="Prozesse im Bezug auf KI"/>
-    <tableColumn id="8" xr3:uid="{16C9F9BB-969A-4461-9A29-3F949B86F0E1}" name="Prozesse im Bezug auf KI2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1821,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65F5C21-3A87-4B0A-B43F-18726C1E9F5C}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,6 +2131,278 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2135,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5EB1CF-2ABD-4D3B-A4F0-908F43B4DF01}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A5" sqref="A5:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,7 +2426,7 @@
     <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -2164,11 +2442,8 @@
       <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -2184,11 +2459,8 @@
       <c r="E2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -2204,11 +2476,8 @@
       <c r="E3" t="s">
         <v>99</v>
       </c>
-      <c r="F3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -2223,334 +2492,6 @@
       </c>
       <c r="E4" t="s">
         <v>93</v>
-      </c>
-      <c r="F4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5">
-        <f ca="1">RANDBETWEEN(0,9)*0.1</f>
-        <v>0.4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:F17" ca="1" si="0">RANDBETWEEN(0,9)*0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ref="B6:B17" ca="1" si="1">RANDBETWEEN(0,9)*0.1</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70000000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70000000000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70000000000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
